--- a/src/test/resources/testdata/UsermanagementTestData.xlsx
+++ b/src/test/resources/testdata/UsermanagementTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aman/Downloads/User-Management-API-Automation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C267A2-F795-5645-A228-69E8D038663C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E5330A-973C-4349-856C-02854E5EF4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{24917189-8F32-284A-80A3-455D7B9C9EBF}"/>
   </bookViews>
@@ -71,31 +71,31 @@
     <t>8083264541</t>
   </si>
   <si>
-    <t>david_smith_8974</t>
-  </si>
-  <si>
-    <t>SecurePass!2024</t>
-  </si>
-  <si>
-    <t>david.smith94@example.net</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>new_smith_4592</t>
-  </si>
-  <si>
-    <t>WrongPassword123!</t>
-  </si>
-  <si>
-    <t>fake_david_7777</t>
-  </si>
-  <si>
-    <t>NewSecurePass@2026</t>
+    <t>sarah_smith_77</t>
+  </si>
+  <si>
+    <t>P@ssw0rd123</t>
+  </si>
+  <si>
+    <t>sarah.smith77@email.com</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>sarah_smith_2025</t>
+  </si>
+  <si>
+    <t>12345incorrect</t>
+  </si>
+  <si>
+    <t>mike_jones_88</t>
+  </si>
+  <si>
+    <t>M@newP@ss2025</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
